--- a/biology/Zoologie/Johann_Andreas_Benignus_Bergsträsser/Johann_Andreas_Benignus_Bergsträsser.xlsx
+++ b/biology/Zoologie/Johann_Andreas_Benignus_Bergsträsser/Johann_Andreas_Benignus_Bergsträsser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Andreas_Benignus_Bergstr%C3%A4sser</t>
+          <t>Johann_Andreas_Benignus_Bergsträsser</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Andreas Benignus Bergsträsser est un naturaliste, né le 21 décembre 1732 à Idstein et mort le 24 décembre 1812 à Hanau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Andreas_Benignus_Bergstr%C3%A4sser</t>
+          <t>Johann_Andreas_Benignus_Bergsträsser</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Andreas Benignus Bergsträsser est né le 21 décembre 1732 à Idstein, fils de Wilhelm Gottfried Bergsträsser (1701-) et Christine Ottilie Petri (1693-1761)[1]. Il est le 5e enfant sur 5 ; il a un frère et trois sœurs[1]. Il s'est marié le 21 novembre 1760 avec Clara Margarethe CANCRIN (1739-1814), qui lui donnera une dizaine d'enfants[1].
-Bergsträsser fut recteur de l’université d'Hanau. Il a consacré sa vie à l’étude de la télégraphie, écrivant sur ce sujet plusieurs ouvrages et construisant un très grand nombre d’appareils télégraphiques. Le mérite principal de ses travaux se trouve dans les perfectionnements qu’il a apportés au vocabulaire de la correspondance télégraphique, et à la codification sommaire qu'il a apportée, avec des chiffres pour une série de mots clés. Il n'a pas développé de système à grande échelle[2].
-Il a créé un télégraphe vivant en 1787, en permettant à un régiment prussien de transmettre des signaux codifiés sous la forme de divers mouvements de leurs bras, chaque mouvement correspondant à un chiffre en présence du prince de Hesse-Cassel[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Andreas Benignus Bergsträsser est né le 21 décembre 1732 à Idstein, fils de Wilhelm Gottfried Bergsträsser (1701-) et Christine Ottilie Petri (1693-1761). Il est le 5e enfant sur 5 ; il a un frère et trois sœurs. Il s'est marié le 21 novembre 1760 avec Clara Margarethe CANCRIN (1739-1814), qui lui donnera une dizaine d'enfants.
+Bergsträsser fut recteur de l’université d'Hanau. Il a consacré sa vie à l’étude de la télégraphie, écrivant sur ce sujet plusieurs ouvrages et construisant un très grand nombre d’appareils télégraphiques. Le mérite principal de ses travaux se trouve dans les perfectionnements qu’il a apportés au vocabulaire de la correspondance télégraphique, et à la codification sommaire qu'il a apportée, avec des chiffres pour une série de mots clés. Il n'a pas développé de système à grande échelle.
+Il a créé un télégraphe vivant en 1787, en permettant à un régiment prussien de transmettre des signaux codifiés sous la forme de divers mouvements de leurs bras, chaque mouvement correspondant à un chiffre en présence du prince de Hesse-Cassel.
 Il est mort le 24 décembre 1812 à Hanau.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Andreas_Benignus_Bergstr%C3%A4sser</t>
+          <t>Johann_Andreas_Benignus_Bergsträsser</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux sur le synthematographe ont contribué à l'apparition du télégraphe.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johann_Andreas_Benignus_Bergstr%C3%A4sser</t>
+          <t>Johann_Andreas_Benignus_Bergsträsser</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Sélection)
 Chronologiae historicae particula prima (-secunda), scholarum in usus concinnatae, qua ad solemnem lycei lustrationem... (Hanovre, deux volumes, 1778).
